--- a/biology/Botanique/Croton_matourensis/Croton_matourensis.xlsx
+++ b/biology/Botanique/Croton_matourensis/Croton_matourensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton matourensis est une espèce de plantes à fleurs du genre Croton et de la famille Euphorbiaceae présente sur la côte et dans le sud de l'Amérique tropicale.
 Cette espèce doit son nom à la commune de Matoury en Guyane.
-En Guyane, on l'appelle communément Bwa-ranmié (bois ramier) en Créole, Mariuβra waʃiune ou Ã seiminio kamwi en Palikur, et  Marabubuia en Portugais[2].
+En Guyane, on l'appelle communément Bwa-ranmié (bois ramier) en Créole, Mariuβra waʃiune ou Ã seiminio kamwi en Palikur, et  Marabubuia en Portugais.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton matourensis est un arbre moyen à grand.
 </t>
@@ -544,7 +558,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Commun sur le littoral guyanais dans les forêts de terre ferme anciennes ou de secondaires, Croton matourensis produit de fruits consommés par les Columbidae (Columba spp.), d'où son nom créole.
 </t>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Palikur emploient l'écorce de Croton matourensis dans un remède contre la diarrhée[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Palikur emploient l'écorce de Croton matourensis dans un remède contre la diarrhée.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « 1. CROTON (Matourenſe) foliis ovatis, acutis, ſubtùs incanis biglanduloſis. (Tabula 338.)
 Arbor trunco decem-petali, in ſummitate ramoſo ; ramis rectis &amp; declinatis, undique ſparſis. Folia alterna, ovata, oblonga, acuminata, integerrima, ſupernè virentia, infernè tomento ſericeo candicantia, ad baſim biglanduloſa, petiolata. Stipulae binae, oblongae, acutae. Flores ſpicati, axillares &amp; terminates. Maſculi ſupernè, feminei infernè ſparſi, brevi pedunculati, ſolitarii in axillâ ſquamulae. 
 FLOS MASCULVS.
